--- a/tasks_list.xlsx
+++ b/tasks_list.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ScheduleApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mishin Danila\PycharmProjects\ScheduleApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,8 +23,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Name</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,7 +67,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -75,9 +83,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -115,7 +123,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -187,7 +195,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -337,14 +345,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>